--- a/Data/Bilançolar/ADESE.xlsx
+++ b/Data/Bilançolar/ADESE.xlsx
@@ -13374,7 +13374,7 @@
         <v>3101000</v>
       </c>
       <c r="C86" t="n">
-        <v>2028000</v>
+        <v>2030000</v>
       </c>
       <c r="D86" t="n">
         <v>5216000</v>
@@ -13827,7 +13827,7 @@
         <v>17961000</v>
       </c>
       <c r="C89" t="n">
-        <v>6444000</v>
+        <v>6446000</v>
       </c>
       <c r="D89" t="n">
         <v>29931000</v>
@@ -14129,7 +14129,7 @@
         <v>1542000</v>
       </c>
       <c r="C91" t="n">
-        <v>302000</v>
+        <v>396000</v>
       </c>
       <c r="D91" t="n">
         <v>466487000</v>
@@ -14733,7 +14733,7 @@
         <v>27718000</v>
       </c>
       <c r="C95" t="n">
-        <v>13107000</v>
+        <v>13203000</v>
       </c>
       <c r="D95" t="n">
         <v>535095000</v>
@@ -15186,7 +15186,7 @@
         <v>-8000</v>
       </c>
       <c r="C98" t="n">
-        <v>250000</v>
+        <v>344000</v>
       </c>
       <c r="D98" t="n">
         <v>466487000</v>
@@ -15337,7 +15337,7 @@
         <v>50585000</v>
       </c>
       <c r="C99" t="n">
-        <v>25179000</v>
+        <v>25275000</v>
       </c>
       <c r="D99" t="n">
         <v>467891000</v>
@@ -16092,7 +16092,7 @@
         <v>50306000</v>
       </c>
       <c r="C104" t="n">
-        <v>22812000</v>
+        <v>22908000</v>
       </c>
       <c r="D104" t="n">
         <v>381233000</v>
@@ -16545,7 +16545,7 @@
         <v>50306000</v>
       </c>
       <c r="C107" t="n">
-        <v>22812000</v>
+        <v>22908000</v>
       </c>
       <c r="D107" t="n">
         <v>384820000</v>
@@ -16998,7 +16998,7 @@
         <v>50306000</v>
       </c>
       <c r="C110" t="n">
-        <v>22812000</v>
+        <v>22908000</v>
       </c>
       <c r="D110" t="n">
         <v>384820000</v>
